--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 23C/PRUEBA_TEMPERATURA_6_23C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 23C/PRUEBA_TEMPERATURA_6_23C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,109 +73,103 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-09 00:05:42</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:06:42</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:07:43</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:08:44</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:09:45</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:10:45</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:11:46</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:12:47</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:13:48</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:14:49</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:15:49</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:16:50</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:17:51</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:18:52</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:19:53</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:20:53</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:21:54</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:22:55</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:23:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:24:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:25:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:26:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:27:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:29:00</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:30:01</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:31:01</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:32:02</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:33:03</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:34:04</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:35:05</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:36:05</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:37:06</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:38:07</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:39:08</t>
-  </si>
-  <si>
-    <t>2023-12-09 00:40:09</t>
+    <t>2023-12-12 03:19:55</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:20:56</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:21:57</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:22:58</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:23:59</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:25:00</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:26:02</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:27:03</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:28:04</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:29:05</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:30:06</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:31:08</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:32:09</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:33:10</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:34:11</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:35:12</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:36:14</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:37:15</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:38:16</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:39:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:40:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:41:19</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:42:21</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:43:22</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:44:23</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:45:24</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:46:25</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:47:27</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:48:28</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:49:29</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:50:30</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:51:31</t>
+  </si>
+  <si>
+    <t>2023-12-12 03:52:33</t>
   </si>
 </sst>
 </file>
@@ -842,84 +836,84 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$36</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>25.279720279720198</c:v>
+                  <c:v>26.984265734265701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.279720279720198</c:v>
+                  <c:v>26.4597902097901</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>25.935314685314601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.541958041958001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.148601398601301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.017482517482499</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>24.624125874125799</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.493006993006901</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.493006993006901</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>24.7552447552447</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>24.361888111888099</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>24.361888111888099</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>24.230769230769202</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.230769230769202</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>24.0996503496503</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.0996503496503</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>23.968531468531399</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>23.837412587412501</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>23.7062937062937</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.7062937062937</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23.7062937062937</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.575174825174798</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23.444055944055901</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.575174825174798</c:v>
+                  <c:v>23.968531468531399</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.575174825174798</c:v>
+                  <c:v>23.968531468531399</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.837412587412501</c:v>
+                  <c:v>23.968531468531399</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>23.575174825174798</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.575174825174798</c:v>
+                  <c:v>23.837412587412501</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.444055944055901</c:v>
+                  <c:v>23.837412587412501</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23.444055944055901</c:v>
+                  <c:v>23.837412587412501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.444055944055901</c:v>
+                  <c:v>23.7062937062937</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.444055944055901</c:v>
+                  <c:v>23.968531468531399</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23.575174825174798</c:v>
+                  <c:v>23.837412587412501</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>23.837412587412501</c:v>
@@ -928,27 +922,21 @@
                   <c:v>23.444055944055901</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.444055944055901</c:v>
+                  <c:v>23.575174825174798</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>23.575174825174798</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.575174825174798</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>23.7062937062937</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>23.444055944055901</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>23.575174825174798</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>23.575174825174798</c:v>
+                  <c:v>23.968531468531399</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>23.444055944055901</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>23.575174825174798</c:v>
-                </c:pt>
-                <c:pt idx="34">
                   <c:v>23.837412587412501</c:v>
                 </c:pt>
               </c:numCache>
@@ -1205,22 +1193,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>23.7062937062937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.968531468531399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.837412587412501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.837412587412501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.444055944055901</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>23.575174825174798</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.837412587412501</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.444055944055901</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.444055944055901</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.7062937062937</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.444055944055901</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>23.575174825174798</c:v>
@@ -1229,10 +1217,10 @@
                   <c:v>23.575174825174798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.444055944055901</c:v>
+                  <c:v>23.7062937062937</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.575174825174798</c:v>
+                  <c:v>23.968531468531399</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>23.837412587412501</c:v>
@@ -1332,10 +1320,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>23.587094723458314</c:v>
+                  <c:v>23.730133502860728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.587094723458314</c:v>
+                  <c:v>23.730133502860728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3057,10 +3045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3106,17 +3094,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.279720279720198</v>
+        <v>26.984265734265701</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>7.025462960882578E-3</v>
+        <v>9.9074074023519643E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3133,14 +3121,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>25.279720279720198</v>
+        <v>26.4597902097901</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
         <f>COUNT(E:E)</f>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3157,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>24.624125874125799</v>
+        <v>25.935314685314601</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3174,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.493006993006901</v>
+        <v>25.541958041958001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3191,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24.493006993006901</v>
+        <v>25.148601398601301</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3208,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24.361888111888099</v>
+        <v>25.017482517482499</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3225,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>24.230769230769202</v>
+        <v>24.624125874125799</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3242,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>24.230769230769202</v>
+        <v>24.7552447552447</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3259,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>23.968531468531399</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3276,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>23.837412587412501</v>
+        <v>24.361888111888099</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3293,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>23.7062937062937</v>
+        <v>24.230769230769202</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3310,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>23.7062937062937</v>
+        <v>24.0996503496503</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3327,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>23.7062937062937</v>
+        <v>24.0996503496503</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3344,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>23.575174825174798</v>
+        <v>23.968531468531399</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3361,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>23.444055944055901</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3378,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>23.575174825174798</v>
+        <v>23.968531468531399</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3391,11 +3379,11 @@
       <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>23.575174825174798</v>
+        <v>23.968531468531399</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3412,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.837412587412501</v>
+        <v>23.968531468531399</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3446,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>23.575174825174798</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3463,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>23.444055944055901</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3480,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>23.444055944055901</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3497,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23.444055944055901</v>
+        <v>23.7062937062937</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3514,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.444055944055901</v>
+        <v>23.968531468531399</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3531,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>23.575174825174798</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3582,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>23.444055944055901</v>
+        <v>23.575174825174798</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3599,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>23.7062937062937</v>
+        <v>23.575174825174798</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3616,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>23.444055944055901</v>
+        <v>23.575174825174798</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3633,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>23.575174825174798</v>
+        <v>23.7062937062937</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3650,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>23.575174825174798</v>
+        <v>23.968531468531399</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3667,40 +3655,6 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>23.444055944055901</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>6</v>
-      </c>
-      <c r="B35">
-        <v>23</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>23.575174825174798</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>23</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
         <v>23.837412587412501</v>
       </c>
     </row>
@@ -3714,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3740,45 +3694,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:30:01</v>
+        <v>2023-12-12 03:42:21</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>23.575174825174798</v>
+        <v>23.7062937062937</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>23.587094723458314</v>
+        <v>23.730133502860728</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:31:01</v>
+        <v>2023-12-12 03:43:22</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>23.837412587412501</v>
+        <v>23.968531468531399</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>23.587094723458314</v>
+        <v>23.730133502860728</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:32:02</v>
+        <v>2023-12-12 03:44:23</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>23.444055944055901</v>
+        <v>23.837412587412501</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3787,35 +3741,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:33:03</v>
+        <v>2023-12-12 03:45:24</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>23.444055944055901</v>
+        <v>23.837412587412501</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.14897488684011514</v>
+        <v>0.17412845914484745</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:34:04</v>
+        <v>2023-12-12 03:46:25</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>23.7062937062937</v>
+        <v>23.444055944055901</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:35:05</v>
+        <v>2023-12-12 03:47:27</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>23.444055944055901</v>
+        <v>23.575174825174798</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3824,7 +3778,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:36:05</v>
+        <v>2023-12-12 03:48:28</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
@@ -3832,13 +3786,13 @@
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>23.837412587412501</v>
+        <v>23.968531468531399</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:37:06</v>
+        <v>2023-12-12 03:49:29</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
@@ -3849,11 +3803,11 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:38:07</v>
+        <v>2023-12-12 03:50:30</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>23.444055944055901</v>
+        <v>23.7062937062937</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3862,11 +3816,11 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:39:08</v>
+        <v>2023-12-12 03:51:31</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>23.575174825174798</v>
+        <v>23.968531468531399</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
@@ -3876,7 +3830,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 00:40:09</v>
+        <v>2023-12-12 03:52:33</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
